--- a/ig/ch-epreg/StructureDefinition-ch-epreg-observation-results-lab.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-observation-results-lab.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -793,7 +793,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -838,7 +838,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -861,7 +861,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1049,7 +1049,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1081,7 +1081,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1140,7 +1140,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1173,7 +1173,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1185,7 +1185,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1213,7 +1213,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1293,7 +1293,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1343,7 +1343,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1376,7 +1376,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1413,7 +1413,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1435,7 +1435,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1890,7 +1890,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6004,7 +6004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>313</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>474</v>
       </c>
@@ -9508,12 +9508,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP63">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
